--- a/output/1Y_P36_1VAL-D.xlsx
+++ b/output/1Y_P36_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G2" s="1">
-        <v>627.6952</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9313</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E3" s="1">
+        <v>627.6952</v>
+      </c>
       <c r="F3" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G3" s="1">
-        <v>1215.2151</v>
-      </c>
       <c r="H3" s="1">
-        <v>20576.5076</v>
+        <v>10628.3856</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.458</v>
+        <v>10628.3856</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9313</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20576.5076</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0315</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E4" s="1">
+        <v>1215.2151</v>
+      </c>
       <c r="F4" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G4" s="1">
-        <v>1787.9265</v>
-      </c>
       <c r="H4" s="1">
-        <v>31056.6411</v>
+        <v>21108.5288</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7792</v>
+        <v>21108.5288</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.458</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31056.6411</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0157</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.886</v>
       </c>
+      <c r="E5" s="1">
+        <v>1787.9265</v>
+      </c>
       <c r="F5" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G5" s="1">
-        <v>2380.1331</v>
-      </c>
       <c r="H5" s="1">
-        <v>39982.6655</v>
+        <v>30034.4835</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.8058</v>
+        <v>30034.4835</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.7792</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39982.6655</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0262</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.59</v>
       </c>
+      <c r="E6" s="1">
+        <v>2380.1331</v>
+      </c>
       <c r="F6" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G6" s="1">
-        <v>2948.6379</v>
-      </c>
       <c r="H6" s="1">
-        <v>51597.625</v>
+        <v>41649.4727</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.957</v>
+        <v>41649.4727</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.8058</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51597.625</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0323</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E7" s="1">
+        <v>2948.6379</v>
+      </c>
       <c r="F7" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>3614.7672</v>
-      </c>
       <c r="H7" s="1">
-        <v>53983.6568</v>
+        <v>44035.5482</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5986</v>
+        <v>44035.5482</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>16.957</v>
+      </c>
+      <c r="M7" s="1">
         <v>3.57</v>
       </c>
-      <c r="L7" s="1">
-        <v>9473.973599999999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-526.0264</v>
+        <v>7647.3676</v>
       </c>
       <c r="O7" s="1">
-        <v>9473.973599999999</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63457.6304</v>
+        <v>-2352.6324</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0302</v>
+        <v>-0.1474</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E8" s="1">
+        <v>3614.7672</v>
+      </c>
       <c r="F8" s="1">
-        <v>753.6201</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4368.3873</v>
+        <v>733.8059</v>
       </c>
       <c r="H8" s="1">
-        <v>66769.9262</v>
+        <v>55250.9942</v>
       </c>
       <c r="I8" s="1">
-        <v>71578.99559999999</v>
+        <v>7647.3676</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3857</v>
+        <v>62898.3617</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61274.5613</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.9512</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11578.9956</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>7894.978</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74664.9042</v>
+        <v>-11274.5613</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0164</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E9" s="1">
+        <v>4348.5732</v>
+      </c>
       <c r="F9" s="1">
-        <v>701.9573</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5070.3446</v>
+        <v>683.5014</v>
       </c>
       <c r="H9" s="1">
-        <v>83202.83319999999</v>
+        <v>71358.781</v>
       </c>
       <c r="I9" s="1">
-        <v>83157.9912</v>
+        <v>6372.8063</v>
       </c>
       <c r="J9" s="1">
-        <v>16.4009</v>
+        <v>77731.5873</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72549.1225</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6834</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11578.9956</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>6315.9824</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89518.8156</v>
+        <v>-11274.5613</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0573</v>
+        <v>0.0663</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E10" s="1">
+        <v>5032.0746</v>
+      </c>
       <c r="F10" s="1">
-        <v>682.3175</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5752.662</v>
+        <v>664.378</v>
       </c>
       <c r="H10" s="1">
-        <v>97117.0156</v>
+        <v>84951.9866</v>
       </c>
       <c r="I10" s="1">
-        <v>94736.9868</v>
+        <v>5098.245</v>
       </c>
       <c r="J10" s="1">
-        <v>16.4684</v>
+        <v>90050.2317</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83823.6838</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.6579</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11578.9956</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>4736.9868</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101854.0024</v>
+        <v>-11274.5613</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0235</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E11" s="1">
+        <v>5696.4526</v>
+      </c>
       <c r="F11" s="1">
-        <v>643.6172</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6396.2792</v>
+        <v>626.6953</v>
       </c>
       <c r="H11" s="1">
-        <v>114475.4889</v>
+        <v>101950.5517</v>
       </c>
       <c r="I11" s="1">
-        <v>106315.9824</v>
+        <v>3823.6838</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6215</v>
+        <v>105774.2354</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95098.245</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6943</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11578.9956</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>3157.9912</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>117633.4801</v>
+        <v>-11274.5613</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0517</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E12" s="1">
+        <v>6323.1479</v>
+      </c>
       <c r="F12" s="1">
-        <v>634.9213</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7031.2005</v>
+        <v>618.2279</v>
       </c>
       <c r="H12" s="1">
-        <v>127562.149</v>
+        <v>114716.4458</v>
       </c>
       <c r="I12" s="1">
-        <v>117894.978</v>
+        <v>2549.1225</v>
       </c>
       <c r="J12" s="1">
-        <v>16.7674</v>
+        <v>117265.5683</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106372.8063</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8228</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11578.9956</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1578.9956</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>129141.1446</v>
+        <v>-11274.5613</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0118</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E13" s="1">
+        <v>6941.3758</v>
+      </c>
       <c r="F13" s="1">
-        <v>604.979</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7636.1795</v>
+        <v>589.0729</v>
       </c>
       <c r="H13" s="1">
-        <v>145394.3852</v>
+        <v>132165.184</v>
       </c>
       <c r="I13" s="1">
-        <v>129473.9736</v>
+        <v>1274.5613</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9553</v>
+        <v>133439.7453</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117647.3676</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.9487</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11578.9956</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>145394.3852</v>
+        <v>-11274.5613</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0449</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>20.979</v>
       </c>
+      <c r="E14" s="1">
+        <v>7530.4488</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7636.1795</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6941.3758</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>157162.7246</v>
       </c>
       <c r="I14" s="1">
-        <v>129473.9736</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9553</v>
+        <v>157162.7246</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117647.3676</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6229</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>159369.3573</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>159369.3573</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>159369.3573</v>
+        <v>144868.5959</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0256</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.9313</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>627.6952</v>
       </c>
       <c r="G2" s="1">
-        <v>627.6952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9313</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.0207</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>627.6952</v>
       </c>
       <c r="F3" s="1">
         <v>553.4723</v>
       </c>
       <c r="G3" s="1">
-        <v>1181.1675</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10628.3856</v>
       </c>
       <c r="I3" s="1">
-        <v>19420.486</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.4418</v>
+        <v>10628.3856</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9420.486000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0081</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9420.486000000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>579.514</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20579.514</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0317</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.4608</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1181.1675</v>
       </c>
       <c r="F4" s="1">
         <v>545.9284</v>
       </c>
       <c r="G4" s="1">
-        <v>1727.0958</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20517.1151</v>
       </c>
       <c r="I4" s="1">
-        <v>28952.832</v>
+        <v>579.514</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7639</v>
+        <v>21096.6291</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18952.832</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0458</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9532.346</v>
       </c>
-      <c r="O4" s="1">
-        <v>1047.168</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31047.168</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0153</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.886</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1727.0958</v>
       </c>
       <c r="F5" s="1">
         <v>654.0692</v>
       </c>
       <c r="G5" s="1">
-        <v>2381.165</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29012.6193</v>
       </c>
       <c r="I5" s="1">
-        <v>39997.4437</v>
+        <v>1047.168</v>
       </c>
       <c r="J5" s="1">
-        <v>16.7974</v>
+        <v>30059.7873</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29997.4437</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3687</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11044.6117</v>
       </c>
-      <c r="O5" s="1">
-        <v>2.5563</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40002.5563</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0254</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.59</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2381.165</v>
       </c>
       <c r="F6" s="1">
         <v>476.1738</v>
       </c>
       <c r="G6" s="1">
-        <v>2857.3388</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41667.5298</v>
       </c>
       <c r="I6" s="1">
-        <v>48373.3409</v>
+        <v>2.5563</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9295</v>
+        <v>41670.0861</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38373.3409</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.1154</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8375.897199999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1626.6591</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51626.6591</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0325</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.0121</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2857.3388</v>
       </c>
       <c r="F7" s="1">
         <v>774.4859</v>
       </c>
       <c r="G7" s="1">
-        <v>3631.8246</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>54238.3956</v>
+        <v>42672.0689</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1626.6591</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5206</v>
+        <v>44298.728</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M7" s="1">
         <v>3.57</v>
       </c>
-      <c r="L7" s="1">
-        <v>9180.629499999999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-2446.0296</v>
+        <v>7650.6831</v>
       </c>
       <c r="O7" s="1">
-        <v>9180.629499999999</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63419.0251</v>
+        <v>-3975.976</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0291</v>
+        <v>-0.1427</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.3645</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3631.8246</v>
       </c>
       <c r="F8" s="1">
         <v>947.8885</v>
       </c>
       <c r="G8" s="1">
-        <v>4579.7132</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>55511.7133</v>
       </c>
       <c r="I8" s="1">
-        <v>74563.8334</v>
+        <v>7650.6831</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2813</v>
+        <v>63162.3964</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>64563.8334</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7772</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-14563.8334</v>
       </c>
-      <c r="O8" s="1">
-        <v>4616.7961</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74616.79610000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0163</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.4953</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4579.7132</v>
       </c>
       <c r="F9" s="1">
         <v>295.4521</v>
       </c>
       <c r="G9" s="1">
-        <v>4875.1653</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>75151.7194</v>
       </c>
       <c r="I9" s="1">
-        <v>79437.4048</v>
+        <v>3086.8497</v>
       </c>
       <c r="J9" s="1">
-        <v>16.2943</v>
+        <v>78238.569</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69437.4048</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.162</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4873.5713</v>
       </c>
-      <c r="O9" s="1">
-        <v>9743.2248</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89743.2248</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0606</v>
+        <v>0.0694</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.9701</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4875.1653</v>
       </c>
       <c r="F10" s="1">
         <v>455.925</v>
       </c>
       <c r="G10" s="1">
-        <v>5331.0903</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82303.0281</v>
       </c>
       <c r="I10" s="1">
-        <v>87174.4981</v>
+        <v>8213.2783</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3521</v>
+        <v>90516.3064</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77174.4981</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.8301</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7737.0933</v>
       </c>
-      <c r="O10" s="1">
-        <v>12006.1314</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102006.1314</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0227</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.9905</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5331.0903</v>
       </c>
       <c r="F11" s="1">
         <v>256.3759</v>
       </c>
       <c r="G11" s="1">
-        <v>5587.4662</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>95411.5898</v>
       </c>
       <c r="I11" s="1">
-        <v>91786.8282</v>
+        <v>10476.185</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4273</v>
+        <v>105887.7748</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81786.8282</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.3415</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4612.3301</v>
       </c>
-      <c r="O11" s="1">
-        <v>17393.8014</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117393.8014</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0481</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.2369</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5587.4662</v>
       </c>
       <c r="F12" s="1">
         <v>475.7121</v>
       </c>
       <c r="G12" s="1">
-        <v>6063.1783</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101369.488</v>
       </c>
       <c r="I12" s="1">
-        <v>100462.3426</v>
+        <v>15863.8549</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5693</v>
+        <v>117233.3429</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>90462.3426</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.1902</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8675.5144</v>
       </c>
-      <c r="O12" s="1">
-        <v>18718.287</v>
-      </c>
-      <c r="P12" s="1">
-        <v>128718.287</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0104</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>19.1395</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6063.1783</v>
       </c>
       <c r="F13" s="1">
         <v>239.2765</v>
       </c>
       <c r="G13" s="1">
-        <v>6302.4548</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>115444.1278</v>
       </c>
       <c r="I13" s="1">
-        <v>105041.9749</v>
+        <v>17188.3405</v>
       </c>
       <c r="J13" s="1">
-        <v>16.6668</v>
+        <v>132632.4683</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95041.9749</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.6753</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4579.6323</v>
       </c>
-      <c r="O13" s="1">
-        <v>24138.6546</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144138.6546</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0391</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>20.979</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6302.4548</v>
       </c>
       <c r="F14" s="1">
         <v>-6302.4548</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131534.1225</v>
       </c>
       <c r="I14" s="1">
-        <v>105041.9749</v>
+        <v>22608.7082</v>
       </c>
       <c r="J14" s="1">
-        <v>16.6668</v>
+        <v>154142.8307</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>95041.9749</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0802</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131534.1225</v>
       </c>
-      <c r="O14" s="1">
-        <v>155672.7772</v>
-      </c>
-      <c r="P14" s="1">
-        <v>155672.7772</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.01</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.9313</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>627.6952</v>
       </c>
       <c r="G2" s="1">
-        <v>627.6952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9313</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.0207</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>627.6952</v>
       </c>
       <c r="F3" s="1">
         <v>556.4252</v>
       </c>
       <c r="G3" s="1">
-        <v>1184.1204</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10628.3856</v>
       </c>
       <c r="I3" s="1">
-        <v>19470.7467</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.4432</v>
+        <v>10628.3856</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9470.7467</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0881</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9470.7467</v>
       </c>
-      <c r="O3" s="1">
-        <v>529.2533</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20579.2533</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.4608</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1184.1204</v>
       </c>
       <c r="F4" s="1">
         <v>551.6253</v>
       </c>
       <c r="G4" s="1">
-        <v>1735.7457</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20568.4079</v>
       </c>
       <c r="I4" s="1">
-        <v>29102.5661</v>
+        <v>529.2533</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7666</v>
+        <v>21097.6612</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19102.5661</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.1323</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9631.819299999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>897.4339</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31047.6839</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0153</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.886</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1735.7457</v>
       </c>
       <c r="F5" s="1">
         <v>645.3532</v>
       </c>
       <c r="G5" s="1">
-        <v>2381.0989</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39998.8897</v>
+        <v>29157.9242</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>897.4339</v>
       </c>
       <c r="J5" s="1">
-        <v>16.799</v>
+        <v>30055.3581</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.2836</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10897.4339</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39998.8897</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0256</v>
+        <v>-0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.59</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2381.0989</v>
       </c>
       <c r="F6" s="1">
         <v>504.9565</v>
       </c>
       <c r="G6" s="1">
-        <v>2886.0554</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41666.3733</v>
       </c>
       <c r="I6" s="1">
-        <v>48882.185</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9374</v>
+        <v>41666.3733</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38882.185</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.3295</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8882.184999999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1117.815</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51620.3212</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0324</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.0121</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2886.0554</v>
       </c>
       <c r="F7" s="1">
         <v>740.5903</v>
       </c>
       <c r="G7" s="1">
-        <v>3626.6457</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>54161.0516</v>
+        <v>43100.9286</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1117.815</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5442</v>
+        <v>44218.7435</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.3247</v>
+      </c>
+      <c r="M7" s="1">
         <v>3.57</v>
       </c>
-      <c r="L7" s="1">
-        <v>9272.896000000001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-1844.919</v>
+        <v>7650.4707</v>
       </c>
       <c r="O7" s="1">
-        <v>9272.896000000001</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63433.9476</v>
+        <v>-3467.3442</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0294</v>
+        <v>-0.1441</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.3645</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3626.6457</v>
       </c>
       <c r="F8" s="1">
         <v>1022.3386</v>
       </c>
       <c r="G8" s="1">
-        <v>4648.9842</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>55432.5535</v>
       </c>
       <c r="I8" s="1">
-        <v>75707.72070000001</v>
+        <v>7650.4707</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2848</v>
+        <v>63083.0243</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>65707.72070000001</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.118</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-15707.7207</v>
       </c>
-      <c r="O8" s="1">
-        <v>3565.1753</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74623.96920000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0162</v>
+        <v>0.1635</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.4953</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4648.9842</v>
       </c>
       <c r="F9" s="1">
         <v>312.355</v>
       </c>
       <c r="G9" s="1">
-        <v>4961.3392</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>76288.4362</v>
       </c>
       <c r="I9" s="1">
-        <v>80860.1099</v>
+        <v>1942.75</v>
       </c>
       <c r="J9" s="1">
-        <v>16.298</v>
+        <v>78231.1862</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70860.1099</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2421</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5152.3892</v>
       </c>
-      <c r="O9" s="1">
-        <v>8412.786099999999</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89826.87390000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0615</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.9701</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4961.3392</v>
       </c>
       <c r="F10" s="1">
         <v>477.6262</v>
       </c>
       <c r="G10" s="1">
-        <v>5438.9654</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83757.8245</v>
       </c>
       <c r="I10" s="1">
-        <v>88965.4749</v>
+        <v>6790.3608</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3571</v>
+        <v>90548.1853</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78965.4749</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9162</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8105.3649</v>
       </c>
-      <c r="O10" s="1">
-        <v>10307.4211</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102128.5794</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0231</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.9905</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5438.9654</v>
       </c>
       <c r="F11" s="1">
         <v>275.9098</v>
       </c>
       <c r="G11" s="1">
-        <v>5714.8752</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>97342.2521</v>
       </c>
       <c r="I11" s="1">
-        <v>93929.2292</v>
+        <v>8684.9959</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4359</v>
+        <v>106027.248</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83929.2292</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.4311</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4963.7544</v>
       </c>
-      <c r="O11" s="1">
-        <v>15343.6668</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117623.9309</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.049</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.2369</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5714.8752</v>
       </c>
       <c r="F12" s="1">
         <v>502.1792</v>
       </c>
       <c r="G12" s="1">
-        <v>6217.0544</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103680.98</v>
       </c>
       <c r="I12" s="1">
-        <v>103087.4208</v>
+        <v>13721.2415</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5814</v>
+        <v>117402.2215</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93087.42080000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.2886</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9158.1916</v>
       </c>
-      <c r="O12" s="1">
-        <v>16185.4752</v>
-      </c>
-      <c r="P12" s="1">
-        <v>128977.1406</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0106</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>19.1395</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6217.0544</v>
       </c>
       <c r="F13" s="1">
         <v>261.6393</v>
       </c>
       <c r="G13" s="1">
-        <v>6478.6937</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>118373.9585</v>
       </c>
       <c r="I13" s="1">
-        <v>108095.0668</v>
+        <v>14563.05</v>
       </c>
       <c r="J13" s="1">
-        <v>16.6847</v>
+        <v>132937.0085</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98095.0668</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.7784</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5007.646</v>
       </c>
-      <c r="O13" s="1">
-        <v>21177.8292</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144533.453</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.04</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>20.979</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6478.6937</v>
       </c>
       <c r="F14" s="1">
         <v>-6478.6937</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135212.2811</v>
       </c>
       <c r="I14" s="1">
-        <v>108095.0668</v>
+        <v>19555.404</v>
       </c>
       <c r="J14" s="1">
-        <v>16.6847</v>
+        <v>154767.685</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98095.0668</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1412</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135212.2811</v>
       </c>
-      <c r="O14" s="1">
-        <v>156390.1103</v>
-      </c>
-      <c r="P14" s="1">
-        <v>156390.1103</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.012</v>
+        <v>0.0828</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.9313</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>627.6952</v>
       </c>
       <c r="G2" s="1">
-        <v>627.6952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9313</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.0207</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>627.6952</v>
       </c>
       <c r="F3" s="1">
         <v>559.3781</v>
       </c>
       <c r="G3" s="1">
-        <v>1187.0733</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10628.3856</v>
       </c>
       <c r="I3" s="1">
-        <v>19521.0075</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.4447</v>
+        <v>10628.3856</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9521.0075</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.1682</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9521.0075</v>
       </c>
-      <c r="O3" s="1">
-        <v>478.9925</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20578.9925</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.4608</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1187.0733</v>
       </c>
       <c r="F4" s="1">
         <v>557.3511</v>
       </c>
       <c r="G4" s="1">
-        <v>1744.4244</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20619.7007</v>
       </c>
       <c r="I4" s="1">
-        <v>29252.8028</v>
+        <v>478.9925</v>
       </c>
       <c r="J4" s="1">
-        <v>16.7693</v>
+        <v>21098.6932</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19252.8028</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.2187</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9731.7953</v>
       </c>
-      <c r="O4" s="1">
-        <v>747.1972</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31048.1972</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0153</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.886</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1744.4244</v>
       </c>
       <c r="F5" s="1">
         <v>636.4561</v>
       </c>
       <c r="G5" s="1">
-        <v>2380.8804</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39995.2199</v>
+        <v>29303.7126</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>747.1972</v>
       </c>
       <c r="J5" s="1">
-        <v>16.8005</v>
+        <v>30050.9098</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1977</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10747.1972</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39995.2199</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0257</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.59</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2380.8804</v>
       </c>
       <c r="F6" s="1">
         <v>534.1795</v>
       </c>
       <c r="G6" s="1">
-        <v>2915.0599</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41662.5505</v>
       </c>
       <c r="I6" s="1">
-        <v>49396.2168</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9452</v>
+        <v>41662.5505</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39396.2168</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.5469</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9396.2168</v>
       </c>
-      <c r="O6" s="1">
-        <v>603.7832</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51613.8333</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0324</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.0121</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2915.0599</v>
       </c>
       <c r="F7" s="1">
         <v>706.3491</v>
       </c>
       <c r="G7" s="1">
-        <v>3621.409</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>54082.8461</v>
+        <v>43534.0875</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>603.7832</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5681</v>
+        <v>44137.8707</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.1523</v>
+      </c>
+      <c r="M7" s="1">
         <v>3.57</v>
       </c>
-      <c r="L7" s="1">
-        <v>9366.0874</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-1237.6958</v>
+        <v>7649.7688</v>
       </c>
       <c r="O7" s="1">
-        <v>9366.0874</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63448.9336</v>
+        <v>-2954.0144</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0298</v>
+        <v>-0.1457</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.3645</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3621.409</v>
       </c>
       <c r="F8" s="1">
         <v>1098.0085</v>
       </c>
       <c r="G8" s="1">
-        <v>4719.4175</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>55352.5121</v>
       </c>
       <c r="I8" s="1">
-        <v>76870.35129999999</v>
+        <v>7649.7688</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2881</v>
+        <v>63002.2809</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>66870.35129999999</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.4653</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-16870.3513</v>
       </c>
-      <c r="O8" s="1">
-        <v>2495.7362</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74631.0883</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0161</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.4953</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4719.4175</v>
       </c>
       <c r="F9" s="1">
         <v>329.8342</v>
       </c>
       <c r="G9" s="1">
-        <v>5049.2517</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>77444.2248</v>
       </c>
       <c r="I9" s="1">
-        <v>82311.0659</v>
+        <v>779.4175</v>
       </c>
       <c r="J9" s="1">
-        <v>16.3016</v>
+        <v>78223.6424</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72311.0659</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.322</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5440.7146</v>
       </c>
-      <c r="O9" s="1">
-        <v>7055.0215</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89911.72719999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0624</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.9701</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5049.2517</v>
       </c>
       <c r="F10" s="1">
         <v>500.1333</v>
       </c>
       <c r="G10" s="1">
-        <v>5549.385</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85241.9721</v>
       </c>
       <c r="I10" s="1">
-        <v>90798.37820000001</v>
+        <v>5338.7029</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3619</v>
+        <v>90580.67509999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80798.37820000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.0021</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8487.3123</v>
       </c>
-      <c r="O10" s="1">
-        <v>8567.7093</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102252.9819</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0234</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.9905</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5549.385</v>
       </c>
       <c r="F11" s="1">
         <v>296.3409</v>
       </c>
       <c r="G11" s="1">
-        <v>5845.7259</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>99318.4534</v>
       </c>
       <c r="I11" s="1">
-        <v>96129.6988</v>
+        <v>6851.3906</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4444</v>
+        <v>106169.844</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86129.6988</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5206</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5331.3206</v>
       </c>
-      <c r="O11" s="1">
-        <v>13236.3887</v>
-      </c>
-      <c r="P11" s="1">
-        <v>117858.5141</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0499</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.2369</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5845.7259</v>
       </c>
       <c r="F12" s="1">
         <v>529.8905999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6375.6165</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>106054.9128</v>
       </c>
       <c r="I12" s="1">
-        <v>105793.2603</v>
+        <v>11520.07</v>
       </c>
       <c r="J12" s="1">
-        <v>16.5934</v>
+        <v>117574.9829</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95793.26029999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.3869</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9663.5615</v>
       </c>
-      <c r="O12" s="1">
-        <v>13572.8272</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129241.1738</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0108</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>19.1395</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6375.6165</v>
       </c>
       <c r="F13" s="1">
         <v>285.292</v>
       </c>
       <c r="G13" s="1">
-        <v>6660.9085</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>121393.0127</v>
       </c>
       <c r="I13" s="1">
-        <v>111253.6072</v>
+        <v>11856.5085</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7025</v>
+        <v>133249.5212</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101253.6072</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8814</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5460.3469</v>
       </c>
-      <c r="O13" s="1">
-        <v>18112.4802</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144937.5104</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0409</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>20.979</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6660.9085</v>
       </c>
       <c r="F14" s="1">
         <v>-6660.9085</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139015.1588</v>
       </c>
       <c r="I14" s="1">
-        <v>111253.6072</v>
+        <v>16396.1616</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7025</v>
+        <v>155411.3204</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101253.6072</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2012</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>139015.1588</v>
       </c>
-      <c r="O14" s="1">
-        <v>157127.639</v>
-      </c>
-      <c r="P14" s="1">
-        <v>157127.639</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0141</v>
+        <v>0.0849</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.9313</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>627.6952</v>
       </c>
       <c r="G2" s="1">
-        <v>627.6952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.152400000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9313</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.152400000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.0207</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>627.6952</v>
       </c>
       <c r="F3" s="1">
         <v>562.3311</v>
       </c>
       <c r="G3" s="1">
-        <v>1190.0262</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10628.3856</v>
       </c>
       <c r="I3" s="1">
-        <v>19571.2682</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.4461</v>
+        <v>10628.3856</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9571.2682</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2483</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9571.2682</v>
       </c>
-      <c r="O3" s="1">
-        <v>428.7318</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20578.7318</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0316</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.4608</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1190.0262</v>
       </c>
       <c r="F4" s="1">
         <v>563.1056</v>
       </c>
       <c r="G4" s="1">
-        <v>1753.1318</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20670.9935</v>
       </c>
       <c r="I4" s="1">
-        <v>29403.5421</v>
+        <v>428.7318</v>
       </c>
       <c r="J4" s="1">
-        <v>16.772</v>
+        <v>21099.7253</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19403.5421</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.3051</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9832.2739</v>
       </c>
-      <c r="O4" s="1">
-        <v>596.4579</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31048.7079</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0154</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.886</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1753.1318</v>
       </c>
       <c r="F5" s="1">
         <v>627.5291999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2380.661</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39991.5337</v>
+        <v>29449.9845</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>596.4579</v>
       </c>
       <c r="J5" s="1">
-        <v>16.8021</v>
+        <v>30046.4425</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1122</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10596.4579</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39991.5337</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0258</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.59</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2380.661</v>
       </c>
       <c r="F6" s="1">
         <v>563.6934</v>
       </c>
       <c r="G6" s="1">
-        <v>2944.3544</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41658.7106</v>
       </c>
       <c r="I6" s="1">
-        <v>49915.3675</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9529</v>
+        <v>41658.7106</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39915.3675</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.7665</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9915.3675</v>
       </c>
-      <c r="O6" s="1">
-        <v>84.63249999999999</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51607.3017</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0323</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.0121</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2944.3544</v>
       </c>
       <c r="F7" s="1">
         <v>671.7669</v>
       </c>
       <c r="G7" s="1">
-        <v>3616.1214</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>54003.8797</v>
+        <v>43971.5779</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>84.63249999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>16.5924</v>
+        <v>44056.2103</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>16.9817</v>
+      </c>
+      <c r="M7" s="1">
         <v>3.57</v>
       </c>
-      <c r="L7" s="1">
-        <v>9460.210800000001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-624.4217</v>
+        <v>7649.0638</v>
       </c>
       <c r="O7" s="1">
-        <v>9460.210800000001</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63464.0905</v>
+        <v>-2435.5687</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0301</v>
+        <v>-0.1472</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.3645</v>
       </c>
       <c r="E8" s="1">
+        <v>3616.1214</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1148.6911</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>1174.9091</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4791.0304</v>
-      </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>55271.6919</v>
       </c>
       <c r="I8" s="1">
-        <v>78051.8903</v>
+        <v>7649.0638</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2913</v>
+        <v>62920.7556</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>67649.0638</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.7076</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-18051.8903</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1408.3204</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>74638.26240000001</v>
+        <v>-17649.0638</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.016</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.4953</v>
       </c>
       <c r="E9" s="1">
+        <v>4764.8124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>374.1231</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>347.9051</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5138.9356</v>
-      </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>78189.1424</v>
       </c>
       <c r="I9" s="1">
-        <v>83790.69</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.3051</v>
+        <v>78189.1424</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73820.3373</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.4928</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-5738.7997</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>5669.5208</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89997.9118</v>
+        <v>-6171.2736</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0633</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.9701</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5138.9356</v>
       </c>
       <c r="F10" s="1">
         <v>523.4712</v>
       </c>
       <c r="G10" s="1">
-        <v>5662.4067</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>86756.0242</v>
       </c>
       <c r="I10" s="1">
-        <v>92674.0482</v>
+        <v>3828.7264</v>
       </c>
       <c r="J10" s="1">
-        <v>16.3665</v>
+        <v>90584.7507</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82703.6955</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.0935</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8883.358200000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>6786.1626</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102379.4795</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0238</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.9905</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5662.4067</v>
       </c>
       <c r="F11" s="1">
         <v>317.7028</v>
       </c>
       <c r="G11" s="1">
-        <v>5980.1096</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>101341.226</v>
       </c>
       <c r="I11" s="1">
-        <v>98389.6805</v>
+        <v>4945.3683</v>
       </c>
       <c r="J11" s="1">
-        <v>16.4528</v>
+        <v>106286.5943</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88419.3278</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6151</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5715.6323</v>
       </c>
-      <c r="O11" s="1">
-        <v>11070.5303</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118097.7469</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0509</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.2369</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5980.1096</v>
       </c>
       <c r="F12" s="1">
         <v>558.8973999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6539.0069</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>108492.9415</v>
       </c>
       <c r="I12" s="1">
-        <v>108582.2356</v>
+        <v>9229.7359</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6053</v>
+        <v>117722.6775</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98611.8829</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.49</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10192.5551</v>
       </c>
-      <c r="O12" s="1">
-        <v>10877.9752</v>
-      </c>
-      <c r="P12" s="1">
-        <v>129510.6001</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.011</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>19.1395</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6539.0069</v>
       </c>
       <c r="F13" s="1">
         <v>310.2969</v>
       </c>
       <c r="G13" s="1">
-        <v>6849.3038</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>124503.9992</v>
       </c>
       <c r="I13" s="1">
-        <v>114521.1632</v>
+        <v>9037.1808</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7201</v>
+        <v>133541.1801</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104550.8105</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.9888</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5938.9276</v>
       </c>
-      <c r="O13" s="1">
-        <v>14939.0476</v>
-      </c>
-      <c r="P13" s="1">
-        <v>145351.1619</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0419</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>20.979</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6849.3038</v>
       </c>
       <c r="F14" s="1">
         <v>-6849.3038</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>142947.0252</v>
       </c>
       <c r="I14" s="1">
-        <v>114521.1632</v>
+        <v>13098.2533</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7201</v>
+        <v>156045.2785</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104550.8105</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2644</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>142947.0252</v>
       </c>
-      <c r="O14" s="1">
-        <v>157886.0728</v>
-      </c>
-      <c r="P14" s="1">
-        <v>157886.0728</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0163</v>
+        <v>0.0871</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>20.9225</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.9553</v>
+        <v>15.6229</v>
       </c>
       <c r="D3" s="1">
-        <v>16.6668</v>
+        <v>15.0802</v>
       </c>
       <c r="E3" s="1">
-        <v>16.6847</v>
+        <v>15.1412</v>
       </c>
       <c r="F3" s="1">
-        <v>16.7025</v>
+        <v>15.2012</v>
       </c>
       <c r="G3" s="1">
-        <v>16.7201</v>
+        <v>15.2644</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3017</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3148</v>
+        <v>0.4155</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2902</v>
+        <v>0.3963</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2956</v>
+        <v>0.4009</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3012</v>
+        <v>0.4056</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3069</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2106</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0722</v>
+        <v>0.2482</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0726</v>
+        <v>0.2406</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0732</v>
+        <v>0.2425</v>
       </c>
       <c r="F5" s="3">
-        <v>0.07389999999999999</v>
+        <v>0.2445</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0746</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3364</v>
       </c>
       <c r="C6" s="4">
-        <v>4.0786</v>
+        <v>1.5924</v>
       </c>
       <c r="D6" s="4">
-        <v>3.7184</v>
+        <v>1.5629</v>
       </c>
       <c r="E6" s="4">
-        <v>3.7619</v>
+        <v>1.5691</v>
       </c>
       <c r="F6" s="4">
-        <v>3.8031</v>
+        <v>1.5755</v>
       </c>
       <c r="G6" s="4">
-        <v>3.8417</v>
+        <v>1.5808</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.6879999999999999</v>
+        <v>0.4188</v>
       </c>
       <c r="D7" s="3">
-        <v>0.6765</v>
+        <v>0.6356000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.679</v>
+        <v>0.6362</v>
       </c>
       <c r="F7" s="3">
-        <v>0.6814</v>
+        <v>0.6368</v>
       </c>
       <c r="G7" s="3">
-        <v>0.6839</v>
+        <v>0.6372</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9473.973599999999</v>
+        <v>7647.3676</v>
       </c>
       <c r="D8" s="1">
-        <v>9180.629499999999</v>
+        <v>7650.6831</v>
       </c>
       <c r="E8" s="1">
-        <v>9272.896000000001</v>
+        <v>7650.4707</v>
       </c>
       <c r="F8" s="1">
-        <v>9366.0874</v>
+        <v>7649.7688</v>
       </c>
       <c r="G8" s="1">
-        <v>9460.210800000001</v>
+        <v>7649.0638</v>
       </c>
     </row>
   </sheetData>
